--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2174669.05336367</v>
+        <v>2170573.411858906</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>246.3048599861096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>329.6914677509312</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>213.1855630993297</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.80723630617493</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>127.7314310689917</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>135.1110683069406</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>264.1756603178915</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.0102312166701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>106.9687207389943</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.1315376300513</v>
+        <v>212.3530806516339</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881312</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>132.1190787273715</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>75.12653431054589</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272876</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576176</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>70.40964990483397</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722638</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>57.0235632167813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>18.16423677622466</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>124.412118557032</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417132</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.2292142534461</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>114.6820364666635</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>126.926382450743</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.7871326503976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.40444476189053</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.162813017127</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1855.428721271371</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>749.4796705208573</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>391.2139719141068</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>391.2139719141068</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>384.2684711649034</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.428721271371</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1855.428721271371</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694942</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9787363064644</v>
+        <v>790.6765725771249</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064644</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941286</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>1421.107167448912</v>
       </c>
       <c r="W4" t="n">
-        <v>869.6648135671838</v>
+        <v>1421.107167448912</v>
       </c>
       <c r="X4" t="n">
-        <v>869.6648135671838</v>
+        <v>1193.117616550895</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.6272011367041</v>
+        <v>972.3250374073647</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1716.437901607244</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C5" t="n">
-        <v>1347.475384666832</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>1347.475384666832</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>961.687132068588</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>550.7012272789805</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230818</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2301.16429435396</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583056</v>
+        <v>1970.101407010389</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583056</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583056</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="Y5" t="n">
-        <v>1716.437901607244</v>
+        <v>1617.332751740275</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507739</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.040131453612</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1044.040131453612</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>754.622961416651</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>526.6334105186337</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1914.669427940026</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1669.181684446221</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1310.91598583947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>925.127733241226</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>514.1418284516185</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940026</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4883,52 +4883,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>1007.000285162486</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.294644713842</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C13" t="n">
-        <v>916.294644713842</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>766.1780053015062</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>618.2649117191131</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2304.031991640193</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2084.430526663135</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.294644713842</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2125.941686997837</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.866460342035</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273906</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438167</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958744</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679675</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556317</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732386</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261141</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>301.5721730233229</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>301.5721730233229</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>301.5721730233229</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6235,7 +6235,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167374</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,13 +6402,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021787</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.076938957246</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.475473980187</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.400247324385</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.715759118498</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.298589081537</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3090381835199</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,13 +6955,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2490.323821483079</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3087.702309109631</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400721</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277364</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>363.7369613277364</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>363.7369613277364</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7168,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118214</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2585.956523868814</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>3081.282130084573</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3678.660617711125</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3678.660617711125</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277364</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8238677453433</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>215.8238677453433</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,13 +7350,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306005</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.833190378099</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>2655.833190378099</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>2655.833190378099</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>2655.833190378099</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053501</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076442</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.30162642064</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.617138214753</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.199968177792</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279775</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136245</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192474</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167374</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566474</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
-        <v>186.4490126143846</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.343145735872014e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>13.30196929555973</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>105.8997516910987</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.9958004224543</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.671640686457977e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>91.59190980143106</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>127.2568112467066</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>15.88259428919189</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.35543909864867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>66.34424953498105</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>38.59775584152588</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>44.73700564187121</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353037831</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>116.6691671648103</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835254.5362274164</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
@@ -26349,13 +26349,13 @@
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.177809983</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744166</v>
+        <v>8727.256391744237</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.25639174418</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.25639174418</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26493,10 +26493,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26508,10 +26508,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747956.4098411424</v>
+        <v>-747956.4098411421</v>
       </c>
       <c r="C6" t="n">
-        <v>366795.3737347773</v>
+        <v>366795.3737347779</v>
       </c>
       <c r="D6" t="n">
-        <v>206779.9109867788</v>
+        <v>206779.910986779</v>
       </c>
       <c r="E6" t="n">
-        <v>149919.0367522472</v>
+        <v>149571.6574978904</v>
       </c>
       <c r="F6" t="n">
-        <v>475331.498559603</v>
+        <v>474984.119305246</v>
       </c>
       <c r="G6" t="n">
-        <v>475331.4985596029</v>
+        <v>474984.119305246</v>
       </c>
       <c r="H6" t="n">
-        <v>475331.4985596031</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="I6" t="n">
-        <v>475331.4985596033</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="J6" t="n">
-        <v>307726.3207496201</v>
+        <v>307378.9414952635</v>
       </c>
       <c r="K6" t="n">
-        <v>475331.4985596028</v>
+        <v>474984.119305246</v>
       </c>
       <c r="L6" t="n">
-        <v>427037.5285514125</v>
+        <v>426690.1492970554</v>
       </c>
       <c r="M6" t="n">
-        <v>390276.4706240909</v>
+        <v>389929.0913697341</v>
       </c>
       <c r="N6" t="n">
-        <v>475331.4985596028</v>
+        <v>474984.119305246</v>
       </c>
       <c r="O6" t="n">
-        <v>475331.498559603</v>
+        <v>474984.1193052465</v>
       </c>
       <c r="P6" t="n">
-        <v>475331.4985596028</v>
+        <v>474984.1193052461</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26804,34 +26804,34 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>118.9680317848979</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>81.85623502202276</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>38.95208022449833</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.7774170459199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>283.8162717039623</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>115.9341818215214</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>22.05149380330914</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.2626605543374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>303.9530049144591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.45311572204346</v>
+        <v>6.231572700460902</v>
       </c>
     </row>
     <row r="11">
@@ -28143,10 +28143,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.557953848736361e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>6.873289662291337e-13</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.558558339858228e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28572,16 +28572,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.073442107663642e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.115210091221213e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29283,10 +29283,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>242.232209776813</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>377.6350660745942</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,31 +32317,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760381</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,34 +32548,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>705.9257335045844</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,31 +33028,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359092</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,28 +33259,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209182</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,37 +33496,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078232</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209176</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,31 +33976,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>342.845445793147</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366843</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359092</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,13 +34792,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202789</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>484.1293732522348</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,13 +35032,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>103.6778299969388</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>235.5010321525759</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.8925903961639</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>574.5840214212511</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525759</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410441</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244899</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410434</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>205.004006818788</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>237.286271753351</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295985</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315972</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525759</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2170573.411858906</v>
+        <v>2172333.94216169</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>329.6914677509312</v>
+        <v>74.24733441530351</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>213.1855630993297</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>4.1402141731355</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>135.1110683069406</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542855</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>106.9687207389943</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>40.12741312164714</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.3530806516339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>75.12653431054589</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272876</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>57.0235632167813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833946</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>105.8965430419533</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.21070476472267</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>134.5665975534142</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1118.442187461269</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="C2" t="n">
-        <v>749.4796705208573</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="D2" t="n">
-        <v>391.2139719141068</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="E2" t="n">
-        <v>391.2139719141068</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="F2" t="n">
-        <v>384.2684711649034</v>
+        <v>192.6177432223203</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1505.042027525391</v>
+        <v>990.2034880760496</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145195</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694942</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>790.6765725771249</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>621.7403896492181</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492181</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
         <v>473.8272960668249</v>
@@ -4488,7 +4488,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1421.107167448912</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1421.107167448912</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1193.117616550895</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>972.3250374073647</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.332751740275</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2558.157293881837</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2558.157293881837</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.16429435396</v>
+        <v>2304.576233146016</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.101407010389</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="W5" t="n">
-        <v>1617.332751740275</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X5" t="n">
-        <v>1617.332751740275</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.332751740275</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657498</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378429</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255072</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>249.632439243114</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452037</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.03939913952</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959895</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2038.144201386632</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1669.181684446221</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D8" t="n">
-        <v>1310.91598583947</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E8" t="n">
-        <v>925.127733241226</v>
+        <v>84.48966329598636</v>
       </c>
       <c r="F8" t="n">
-        <v>514.1418284516185</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.8230468926974</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2304.031991640193</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2084.430526663135</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1795.355300007332</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1540.670811801445</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.253641764485</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1023.264090866467</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5415,55 +5415,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
         <v>2035.268256189238</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,61 +5649,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854707</v>
@@ -5712,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,31 +5770,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566474</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.8997516910987</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>91.59190980143106</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844822971</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>123.7828069546809</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>34.39816980427059</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>110.2232578818465</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>46.45968844823039</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26343,19 +26343,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.549796580657131e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744237</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747956.4098411421</v>
+        <v>-747956.4098411424</v>
       </c>
       <c r="C6" t="n">
-        <v>366795.3737347779</v>
+        <v>366795.3737347774</v>
       </c>
       <c r="D6" t="n">
-        <v>206779.910986779</v>
+        <v>206779.9109867788</v>
       </c>
       <c r="E6" t="n">
-        <v>149571.6574978904</v>
+        <v>149884.2988268124</v>
       </c>
       <c r="F6" t="n">
-        <v>474984.119305246</v>
+        <v>475296.7606341675</v>
       </c>
       <c r="G6" t="n">
-        <v>474984.119305246</v>
+        <v>475296.7606341664</v>
       </c>
       <c r="H6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341678</v>
       </c>
       <c r="I6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341675</v>
       </c>
       <c r="J6" t="n">
-        <v>307378.9414952635</v>
+        <v>307691.5828241848</v>
       </c>
       <c r="K6" t="n">
-        <v>474984.119305246</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="L6" t="n">
-        <v>426690.1492970554</v>
+        <v>427002.7906259765</v>
       </c>
       <c r="M6" t="n">
-        <v>389929.0913697341</v>
+        <v>390241.7326986553</v>
       </c>
       <c r="N6" t="n">
-        <v>474984.119305246</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="O6" t="n">
-        <v>474984.1193052465</v>
+        <v>475296.7606341671</v>
       </c>
       <c r="P6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341671</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.85623502202276</v>
+        <v>337.3003683576505</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>38.95208022449833</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>119.3120012256588</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>115.9341818215214</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193756</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>303.9530049144591</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>69.06034866652868</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.231572700460902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>6.873289662291337e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.115210091221213e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065822</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,13 +34792,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980274</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37077,7 +37077,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
